--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/33.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/33.xlsx
@@ -479,13 +479,13 @@
         <v>-11.74085510321188</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.84167344507236</v>
+        <v>-13.24139122206325</v>
       </c>
       <c r="F2" t="n">
-        <v>4.453582002629833</v>
+        <v>1.748836733646477</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.67472816383669</v>
+        <v>-14.88907453833719</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.48197363344884</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.53284701286873</v>
+        <v>-13.79839577441087</v>
       </c>
       <c r="F3" t="n">
-        <v>4.223612897623888</v>
+        <v>1.121894938067638</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.62636610790917</v>
+        <v>-15.04838771610248</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.23856533855472</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.01333860774913</v>
+        <v>-14.62881803579071</v>
       </c>
       <c r="F4" t="n">
-        <v>3.964089746107442</v>
+        <v>0.5438774342060179</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.97943316325151</v>
+        <v>-14.19271862326189</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.03196273673486</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.55308985486341</v>
+        <v>-15.02691030893612</v>
       </c>
       <c r="F5" t="n">
-        <v>4.389848909112731</v>
+        <v>1.369870255364432</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.49864333895223</v>
+        <v>-13.81859226177809</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.82726084268853</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.27141696679862</v>
+        <v>-15.78742466112594</v>
       </c>
       <c r="F6" t="n">
-        <v>4.499108434574546</v>
+        <v>1.582771837397977</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.12298182931222</v>
+        <v>-13.25934854428543</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.61024737649739</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.0512966751883</v>
+        <v>-16.53653296029525</v>
       </c>
       <c r="F7" t="n">
-        <v>4.238323919286436</v>
+        <v>0.5287117349048478</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.16985527358655</v>
+        <v>-12.24269912233793</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.35305208575618</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.02571485581938</v>
+        <v>-17.66477396398008</v>
       </c>
       <c r="F8" t="n">
-        <v>4.460504836353385</v>
+        <v>0.8098247407455903</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.69904391230264</v>
+        <v>-12.36865460625026</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.03663682466116</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.33860640629507</v>
+        <v>-17.51054535335638</v>
       </c>
       <c r="F9" t="n">
-        <v>4.748540675917679</v>
+        <v>1.121802046937167</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.61612146683289</v>
+        <v>-12.10708296085658</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.648224667475329</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.97104833459919</v>
+        <v>-18.41734856901803</v>
       </c>
       <c r="F10" t="n">
-        <v>5.104817273330372</v>
+        <v>1.53281596523184</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.98556180617254</v>
+        <v>-11.74857697631257</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.182488176320286</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.79472865550955</v>
+        <v>-19.05266034435303</v>
       </c>
       <c r="F11" t="n">
-        <v>4.600697108262171</v>
+        <v>0.9126356661499447</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.43202844870043</v>
+        <v>-11.4307768629425</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.655939302317732</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.91508369111805</v>
+        <v>-19.97750888436046</v>
       </c>
       <c r="F12" t="n">
-        <v>5.174563845293781</v>
+        <v>1.351360475366292</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.06353911213418</v>
+        <v>-11.20724657998028</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.088919076139341</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.75945917809606</v>
+        <v>-20.43886490636376</v>
       </c>
       <c r="F13" t="n">
-        <v>5.508546571393341</v>
+        <v>1.485465933725769</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.86476675994602</v>
+        <v>-11.1761231622655</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.527635988980463</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.69804582739953</v>
+        <v>-21.06213505778555</v>
       </c>
       <c r="F14" t="n">
-        <v>5.747090994443856</v>
+        <v>1.98617846100773</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.33686646547715</v>
+        <v>-10.45386039980242</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.016254639304704</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.83599893416326</v>
+        <v>-20.94852431621218</v>
       </c>
       <c r="F15" t="n">
-        <v>5.968064326814678</v>
+        <v>2.221540140587882</v>
       </c>
       <c r="G15" t="n">
-        <v>-10.09931451082062</v>
+        <v>-10.30472124532718</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.59964842030309</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.96928050392788</v>
+        <v>-21.93391831725949</v>
       </c>
       <c r="F16" t="n">
-        <v>6.038827812206405</v>
+        <v>2.278247731237229</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.19880580056233</v>
+        <v>-10.58780940994216</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.321289696008284</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.40699075328156</v>
+        <v>-23.19273491634588</v>
       </c>
       <c r="F17" t="n">
-        <v>6.358783977604786</v>
+        <v>2.881732071868609</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.77350131519567</v>
+        <v>-10.23466177692429</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.205587419204025</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.65867193778347</v>
+        <v>-23.22097382000918</v>
       </c>
       <c r="F18" t="n">
-        <v>6.609717144056063</v>
+        <v>3.110351810979286</v>
       </c>
       <c r="G18" t="n">
-        <v>-9.799872618235808</v>
+        <v>-10.21937874145831</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.271251326106838</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.49460410990233</v>
+        <v>-24.04970448501307</v>
       </c>
       <c r="F19" t="n">
-        <v>6.639403193751971</v>
+        <v>2.920404116185907</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.582641911559394</v>
+        <v>-8.766708131091875</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.512642065991854</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.33584085447178</v>
+        <v>-25.09021714947798</v>
       </c>
       <c r="F20" t="n">
-        <v>6.772164175223046</v>
+        <v>3.039837664937772</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.966455931087768</v>
+        <v>-8.123647279872817</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.917161608168323</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.10654389697225</v>
+        <v>-26.12264828559187</v>
       </c>
       <c r="F21" t="n">
-        <v>7.012991764480409</v>
+        <v>3.309740178032679</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.906995829572348</v>
+        <v>-8.2040372197855</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.455935776269523</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.70097624138954</v>
+        <v>-26.90472071356135</v>
       </c>
       <c r="F22" t="n">
-        <v>6.917568128451964</v>
+        <v>3.108278872067714</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.239509500046184</v>
+        <v>-7.60660546965536</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.090196565206856</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.00385510580179</v>
+        <v>-27.06457657108887</v>
       </c>
       <c r="F23" t="n">
-        <v>7.078088890913382</v>
+        <v>3.458537102027235</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.6523691093709</v>
+        <v>-7.091973939823291</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.779865030529194</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.62678058223945</v>
+        <v>-27.9079229221214</v>
       </c>
       <c r="F24" t="n">
-        <v>7.487435657866437</v>
+        <v>4.155137467445877</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.445158331330444</v>
+        <v>-6.698467555119041</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.471819393440942</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.73758014486435</v>
+        <v>-28.20945486514182</v>
       </c>
       <c r="F25" t="n">
-        <v>7.314330591729579</v>
+        <v>4.088285187547682</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.11563437949351</v>
+        <v>-6.63214817696934</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.11931678600264</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.8265234022907</v>
+        <v>-28.64190952305134</v>
       </c>
       <c r="F26" t="n">
-        <v>7.232454393729355</v>
+        <v>3.863513096841268</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.689381426794663</v>
+        <v>-5.993506987957974</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.66918548820348</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.99956735584172</v>
+        <v>-28.85202437117075</v>
       </c>
       <c r="F27" t="n">
-        <v>7.356493386949854</v>
+        <v>4.330325250508041</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.389739084928313</v>
+        <v>-6.13002272670284</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.08002707145131</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.89272299977216</v>
+        <v>-28.76405158160748</v>
       </c>
       <c r="F28" t="n">
-        <v>7.274974086450914</v>
+        <v>4.054076806499879</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.329716747623197</v>
+        <v>-6.639100344734093</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.31704063294604</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.9505917295524</v>
+        <v>-28.67369295669316</v>
       </c>
       <c r="F29" t="n">
-        <v>6.791676201628904</v>
+        <v>3.806526832800507</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.127355864394721</v>
+        <v>-6.490894990570434</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.36339703050652</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.8915423046138</v>
+        <v>-28.70419302603241</v>
       </c>
       <c r="F30" t="n">
-        <v>7.208581373198209</v>
+        <v>4.656162891167321</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.44849028044803</v>
+        <v>-6.834929514788371</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.21590173193167</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.46812986490463</v>
+        <v>-28.39492667414853</v>
       </c>
       <c r="F31" t="n">
-        <v>7.212976590371565</v>
+        <v>4.534089278707322</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.29226695502263</v>
+        <v>-6.644527142356369</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.88331357387833</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.59773743694655</v>
+        <v>-28.27411931446706</v>
       </c>
       <c r="F32" t="n">
-        <v>6.706147915499094</v>
+        <v>3.861787277417247</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.25087173388046</v>
+        <v>-6.342440297056561</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.39010448315947</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.0953968703779</v>
+        <v>-27.58870010775306</v>
       </c>
       <c r="F33" t="n">
-        <v>6.964947493999237</v>
+        <v>4.245540093422002</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.305222823219954</v>
+        <v>-6.471974533995472</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.767086539846634</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.69843395781875</v>
+        <v>-27.35285686099651</v>
       </c>
       <c r="F34" t="n">
-        <v>6.418175633024069</v>
+        <v>3.559622208007568</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.091147879538349</v>
+        <v>-5.837249439484506</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.057594647429259</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.35388853238322</v>
+        <v>-27.17745640613564</v>
       </c>
       <c r="F35" t="n">
-        <v>7.052876282500701</v>
+        <v>4.407371109723753</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.437578017121075</v>
+        <v>-6.101705598929668</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.299245844040025</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.88063755667271</v>
+        <v>-26.45597344026783</v>
       </c>
       <c r="F36" t="n">
-        <v>6.888718098930299</v>
+        <v>3.963718181585556</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.216037559953691</v>
+        <v>-5.624694976938511</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.540590943923756</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.41631879650807</v>
+        <v>-25.65129424454573</v>
       </c>
       <c r="F37" t="n">
-        <v>6.950930711311791</v>
+        <v>3.872205751050643</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.005629371422272</v>
+        <v>-5.366711862585143</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.815663679519278</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.72625992227736</v>
+        <v>-24.79435889892662</v>
       </c>
       <c r="F38" t="n">
-        <v>6.534397104264372</v>
+        <v>3.150216772972111</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.887946087128763</v>
+        <v>-4.994702441074718</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.15991857786541</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.21059681199637</v>
+        <v>-24.62641662404122</v>
       </c>
       <c r="F39" t="n">
-        <v>6.421206817281557</v>
+        <v>3.04110880672317</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.061662279123985</v>
+        <v>-5.532688756710039</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.596611044463922</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.95428573799149</v>
+        <v>-24.02084956648454</v>
       </c>
       <c r="F40" t="n">
-        <v>6.428540327581929</v>
+        <v>3.209080415649767</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.172080499213259</v>
+        <v>-5.413792998713534</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.140051383752652</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.47761734648101</v>
+        <v>-23.4334207244041</v>
       </c>
       <c r="F41" t="n">
-        <v>6.623025020747805</v>
+        <v>3.489450292446738</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.412370297715261</v>
+        <v>-5.523072080202817</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.800454948190081</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.03068389473512</v>
+        <v>-23.32682570768475</v>
       </c>
       <c r="F42" t="n">
-        <v>6.431243948379333</v>
+        <v>3.348920679064135</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.372588448839175</v>
+        <v>-5.825882498518928</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.573538473209989</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.56805184193956</v>
+        <v>-22.90092965248719</v>
       </c>
       <c r="F43" t="n">
-        <v>6.190743922582053</v>
+        <v>2.648722004591443</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.552440344452375</v>
+        <v>-6.190587743770182</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.459085743481174</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.80695569793257</v>
+        <v>-22.49056597210582</v>
       </c>
       <c r="F44" t="n">
-        <v>6.402579701118611</v>
+        <v>3.115817720656497</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.639229994353849</v>
+        <v>-6.14663068302975</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.442334468603229</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.32045551361273</v>
+        <v>-22.19124141568582</v>
       </c>
       <c r="F45" t="n">
-        <v>6.429405681797373</v>
+        <v>2.903380594275309</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.817253401398824</v>
+        <v>-6.28374288061238</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.51278855082939</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.68349125395672</v>
+        <v>-21.60002359328353</v>
       </c>
       <c r="F46" t="n">
-        <v>6.238411739534474</v>
+        <v>3.11804710778781</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.849129726171109</v>
+        <v>-6.199915968872256</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.653676184986201</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.77636282840064</v>
+        <v>-21.97074720598795</v>
       </c>
       <c r="F47" t="n">
-        <v>6.493094774252674</v>
+        <v>3.143587279660574</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.451846492724384</v>
+        <v>-6.610915220146328</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.845106111763483</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.925103619754</v>
+        <v>-21.0808941771339</v>
       </c>
       <c r="F48" t="n">
-        <v>6.445329177162915</v>
+        <v>3.206288792728758</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.360480732395477</v>
+        <v>-6.220718693090979</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.071371836535159</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.46566897744941</v>
+        <v>-20.80673333905791</v>
       </c>
       <c r="F49" t="n">
-        <v>6.51749091851858</v>
+        <v>3.342711640343153</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.390367231372928</v>
+        <v>-5.82854211825453</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.311856787029026</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.32873278411398</v>
+        <v>-21.0652004650911</v>
       </c>
       <c r="F50" t="n">
-        <v>6.340127527400639</v>
+        <v>3.306332540246439</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.156782614851116</v>
+        <v>-6.524712251068884</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.55235140121507</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.72024698945775</v>
+        <v>-20.41525589220343</v>
       </c>
       <c r="F51" t="n">
-        <v>6.579801311037411</v>
+        <v>3.834589732216599</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.073987283559911</v>
+        <v>-6.585736834781716</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.776668824990567</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.10808955064446</v>
+        <v>-19.77161813817408</v>
       </c>
       <c r="F52" t="n">
-        <v>6.645460673260079</v>
+        <v>4.009537953942283</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.445434469280642</v>
+        <v>-6.497231143469955</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.975090678720739</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.91737428177298</v>
+        <v>-19.56928169997994</v>
       </c>
       <c r="F53" t="n">
-        <v>6.764747551805936</v>
+        <v>4.048938460282751</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.839933322378876</v>
+        <v>-7.160776933461386</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.142337606676548</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.2844532307959</v>
+        <v>-18.74093237751167</v>
       </c>
       <c r="F54" t="n">
-        <v>7.029467717621913</v>
+        <v>4.516806639432778</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.706996336660591</v>
+        <v>-6.464773026880507</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.272637601468436</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.92963355742955</v>
+        <v>-18.47712156697294</v>
       </c>
       <c r="F55" t="n">
-        <v>7.002441287661608</v>
+        <v>4.523465466785516</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.595988900306072</v>
+        <v>-7.747897768109202</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.370818638019151</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.79513208951385</v>
+        <v>-18.59154388368621</v>
       </c>
       <c r="F56" t="n">
-        <v>6.758250061679806</v>
+        <v>4.013654497724226</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.812835910881217</v>
+        <v>-7.374050080016817</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.437974070970805</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.52109347660954</v>
+        <v>-18.36221523857984</v>
       </c>
       <c r="F57" t="n">
-        <v>6.95267608676328</v>
+        <v>4.437663396271159</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.292295925312699</v>
+        <v>-7.788305409864254</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.482502015671387</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.94998413945087</v>
+        <v>-17.5876058795927</v>
       </c>
       <c r="F58" t="n">
-        <v>6.730270275380452</v>
+        <v>4.328941661564704</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.738334688801951</v>
+        <v>-8.236324221134605</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.509792087119069</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.67742200662036</v>
+        <v>-17.09502377073042</v>
       </c>
       <c r="F59" t="n">
-        <v>6.821719148826096</v>
+        <v>4.347099433068426</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.592050714336988</v>
+        <v>-8.082706736369271</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.528724303672639</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.07067180940188</v>
+        <v>-16.18781965650568</v>
       </c>
       <c r="F60" t="n">
-        <v>6.546145387765568</v>
+        <v>4.008530818527699</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.865204416998393</v>
+        <v>-8.219672263745894</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.546879852064043</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.75988742088583</v>
+        <v>-15.87058666793217</v>
       </c>
       <c r="F61" t="n">
-        <v>6.496213960633765</v>
+        <v>4.041101382275087</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.741967220904067</v>
+        <v>-8.070009985535894</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.5688295722206</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.49260052646472</v>
+        <v>-15.29514078168254</v>
       </c>
       <c r="F62" t="n">
-        <v>6.308598322115905</v>
+        <v>3.733167284762448</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.39058198392394</v>
+        <v>-9.232899380886549</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.601773160298364</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.23986331647955</v>
+        <v>-14.83316385580715</v>
       </c>
       <c r="F63" t="n">
-        <v>6.443921143185244</v>
+        <v>3.839605853262054</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.13292643303066</v>
+        <v>-9.077463185566723</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.644893327888096</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.58228935743828</v>
+        <v>-15.19930646907728</v>
       </c>
       <c r="F64" t="n">
-        <v>6.089575703484982</v>
+        <v>3.64045704754514</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.55054051059566</v>
+        <v>-9.446832543369013</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.701581164650444</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.28627954767405</v>
+        <v>-14.78376533042384</v>
       </c>
       <c r="F65" t="n">
-        <v>6.258295330462217</v>
+        <v>3.519419904540927</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.77020358912615</v>
+        <v>-9.919213275857203</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.76782443459649</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.31025523734939</v>
+        <v>-14.85650886359667</v>
       </c>
       <c r="F66" t="n">
-        <v>6.046356882781454</v>
+        <v>3.330406010059128</v>
       </c>
       <c r="G66" t="n">
-        <v>-11.01603263240837</v>
+        <v>-10.25560628234215</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.843578951093046</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.22678033410369</v>
+        <v>-14.73121339561137</v>
       </c>
       <c r="F67" t="n">
-        <v>5.666740166586108</v>
+        <v>2.540772732969961</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.89027270877072</v>
+        <v>-10.25321555798423</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.923651270645162</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.43321376005231</v>
+        <v>-15.04503874639864</v>
       </c>
       <c r="F68" t="n">
-        <v>5.797227759864069</v>
+        <v>2.809721889725819</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.9772090288782</v>
+        <v>-10.45543954902043</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.004818513401841</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.96293276507567</v>
+        <v>-15.55266921839729</v>
       </c>
       <c r="F69" t="n">
-        <v>6.067697397755538</v>
+        <v>3.101165367076353</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.64062046211857</v>
+        <v>-10.07139828161053</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.084227824324317</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.67011547679554</v>
+        <v>-15.06139247436847</v>
       </c>
       <c r="F70" t="n">
-        <v>5.886794365665951</v>
+        <v>2.914830648357623</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.55412415262911</v>
+        <v>-9.909850827707061</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.15480331342834</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.01385666060146</v>
+        <v>-15.19215385203098</v>
       </c>
       <c r="F71" t="n">
-        <v>5.665830811308862</v>
+        <v>2.583443984904394</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.76980269056306</v>
+        <v>-10.48034903900736</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.216883306591494</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.15925083581664</v>
+        <v>-15.4464946562685</v>
       </c>
       <c r="F72" t="n">
-        <v>5.70161834157468</v>
+        <v>2.594537141485425</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.89279054730718</v>
+        <v>-10.73672855910839</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.265115183902036</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.33734268895775</v>
+        <v>-15.77305586994408</v>
       </c>
       <c r="F73" t="n">
-        <v>5.717385388720481</v>
+        <v>2.688450074391994</v>
       </c>
       <c r="G73" t="n">
-        <v>-11.1518443541644</v>
+        <v>-11.15244570200903</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.3016300568029</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.73351358240447</v>
+        <v>-16.35464234881855</v>
       </c>
       <c r="F74" t="n">
-        <v>5.788647552812633</v>
+        <v>2.710362603169507</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.91636044941257</v>
+        <v>-11.10696816013299</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.323740321436119</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.13986827715498</v>
+        <v>-16.68006931290101</v>
       </c>
       <c r="F75" t="n">
-        <v>5.724273999395963</v>
+        <v>2.587330745363592</v>
       </c>
       <c r="G75" t="n">
-        <v>-11.01580284908562</v>
+        <v>-11.30596051763016</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.334663314588951</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.18875345681726</v>
+        <v>-16.57244271573274</v>
       </c>
       <c r="F76" t="n">
-        <v>5.71074611739521</v>
+        <v>2.412289632507436</v>
       </c>
       <c r="G76" t="n">
-        <v>-11.11617904907026</v>
+        <v>-11.57940756070358</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.33644924614829</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.52431533213483</v>
+        <v>-16.74055121685161</v>
       </c>
       <c r="F77" t="n">
-        <v>5.774557435022184</v>
+        <v>2.403244969803643</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.57367040208304</v>
+        <v>-10.96709367367055</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.32980433255759</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.17640617903708</v>
+        <v>-17.64052937892705</v>
       </c>
       <c r="F78" t="n">
-        <v>5.598592299868181</v>
+        <v>2.068010657946152</v>
       </c>
       <c r="G78" t="n">
-        <v>-10.49920593849306</v>
+        <v>-10.78650842702731</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.321521544123067</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.46535137387862</v>
+        <v>-18.04132527286987</v>
       </c>
       <c r="F79" t="n">
-        <v>5.847281412167544</v>
+        <v>2.57272239284525</v>
       </c>
       <c r="G79" t="n">
-        <v>-10.46749095094738</v>
+        <v>-10.93612670417551</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.311907372541644</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.94396070111526</v>
+        <v>-18.44763596655857</v>
       </c>
       <c r="F80" t="n">
-        <v>5.707411814711974</v>
+        <v>2.188206891769256</v>
       </c>
       <c r="G80" t="n">
-        <v>-10.29107113815475</v>
+        <v>-10.75156669494947</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.307678315698678</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.88555408964188</v>
+        <v>-19.49620082533329</v>
       </c>
       <c r="F81" t="n">
-        <v>5.871824226639457</v>
+        <v>2.331645464237674</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.823858085924893</v>
+        <v>-10.32034651127384</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.309147404076674</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.62717731929794</v>
+        <v>-20.2663367430372</v>
       </c>
       <c r="F82" t="n">
-        <v>5.778321970309708</v>
+        <v>2.21105322085835</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.740451628775324</v>
+        <v>-10.40293161526977</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.322380194172366</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.44717621803752</v>
+        <v>-21.13315766054122</v>
       </c>
       <c r="F83" t="n">
-        <v>5.868621927141628</v>
+        <v>2.432686569156205</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.435768720829184</v>
+        <v>-9.837493526076718</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.350766819660229</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.76359020702304</v>
+        <v>-22.64770354181534</v>
       </c>
       <c r="F84" t="n">
-        <v>5.681905865887279</v>
+        <v>1.875584236671247</v>
       </c>
       <c r="G84" t="n">
-        <v>-9.211148189335644</v>
+        <v>-9.545106470400871</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.398169828614005</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.73400429103012</v>
+        <v>-23.87657986284874</v>
       </c>
       <c r="F85" t="n">
-        <v>6.025984391167019</v>
+        <v>2.297622865450813</v>
       </c>
       <c r="G85" t="n">
-        <v>-9.228117932170706</v>
+        <v>-9.555520055027399</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.474484629812439</v>
       </c>
       <c r="E86" t="n">
-        <v>-24.06965652203695</v>
+        <v>-25.4563450957275</v>
       </c>
       <c r="F86" t="n">
-        <v>5.995452543283135</v>
+        <v>2.279548207063828</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.408739937303228</v>
+        <v>-8.43718417925494</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.581648507343256</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.80950993120718</v>
+        <v>-26.25105316194453</v>
       </c>
       <c r="F87" t="n">
-        <v>6.123769417512185</v>
+        <v>2.541774979377678</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.311482923699689</v>
+        <v>-8.513257126104136</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.73231684006548</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.79497237835063</v>
+        <v>-27.06931157423948</v>
       </c>
       <c r="F88" t="n">
-        <v>6.426403831581087</v>
+        <v>2.919343201695786</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.169550165346282</v>
+        <v>-8.484768883090624</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.929786691046445</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.17379942899919</v>
+        <v>-28.64940437057832</v>
       </c>
       <c r="F89" t="n">
-        <v>6.041614546120546</v>
+        <v>2.22268416819474</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.556454037214547</v>
+        <v>-7.405183275745331</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.183066272133861</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.73852363225188</v>
+        <v>-29.92037992974273</v>
       </c>
       <c r="F90" t="n">
-        <v>6.113805621517412</v>
+        <v>2.230643471374078</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.791761937719163</v>
+        <v>-8.047481441893149</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.495952675057801</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.47197479599211</v>
+        <v>-31.82317651333916</v>
       </c>
       <c r="F91" t="n">
-        <v>6.256838406415876</v>
+        <v>2.385815660323091</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.37228514853786</v>
+        <v>-7.481798902356755</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.86970780058394</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.98547198529327</v>
+        <v>-33.33721149339569</v>
       </c>
       <c r="F92" t="n">
-        <v>6.46650835491039</v>
+        <v>2.672213682586969</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.655412425207771</v>
+        <v>-8.103885914116747</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.309800049257124</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.65826035182882</v>
+        <v>-34.78994077184453</v>
       </c>
       <c r="F93" t="n">
-        <v>6.43066215656217</v>
+        <v>2.690166115802281</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.501755828387502</v>
+        <v>-7.965957252387343</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.804063443533364</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.63072039427193</v>
+        <v>-36.40905517649166</v>
       </c>
       <c r="F94" t="n">
-        <v>6.033958361366958</v>
+        <v>1.991874154007686</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.745538913233698</v>
+        <v>-7.071063657453497</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.35345587227848</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.08423426738512</v>
+        <v>-39.24402158787872</v>
       </c>
       <c r="F95" t="n">
-        <v>6.040138066046738</v>
+        <v>2.007166967487396</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.484945069213397</v>
+        <v>-7.050451604502583</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.94337572788316</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.81947480763865</v>
+        <v>-41.04551794919268</v>
       </c>
       <c r="F96" t="n">
-        <v>5.75079197264211</v>
+        <v>1.968289584881688</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.049046105966128</v>
+        <v>-6.658881266517631</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.5585836179453</v>
       </c>
       <c r="E97" t="n">
-        <v>-42.06997022609977</v>
+        <v>-42.99200514265529</v>
       </c>
       <c r="F97" t="n">
-        <v>5.443982346708863</v>
+        <v>1.646294703619803</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.820788153363603</v>
+        <v>-6.488954054844268</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.18783651210188</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.75002610134299</v>
+        <v>-44.60642365620674</v>
       </c>
       <c r="F98" t="n">
-        <v>5.349399619861527</v>
+        <v>1.622284790896383</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.536438624976962</v>
+        <v>-6.171965516614104</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.79935891992449</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.32607315356167</v>
+        <v>-47.04895070863827</v>
       </c>
       <c r="F99" t="n">
-        <v>5.264976249283639</v>
+        <v>2.078561134764955</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.593605782271799</v>
+        <v>-6.677029260007619</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.39829660385468</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.54438423981789</v>
+        <v>-49.03664367422696</v>
       </c>
       <c r="F100" t="n">
-        <v>4.689535252040883</v>
+        <v>1.557265888573282</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.705104472878661</v>
+        <v>-7.016032996159502</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.92753034886543</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.30828413832527</v>
+        <v>-50.93790755417061</v>
       </c>
       <c r="F101" t="n">
-        <v>4.858465106313395</v>
+        <v>2.101867030499538</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.701887506360231</v>
+        <v>-7.076143335588221</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-14.43507237224707</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.09496558658076</v>
+        <v>-52.64293647649004</v>
       </c>
       <c r="F102" t="n">
-        <v>4.502046727701561</v>
+        <v>1.708649097200436</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.742818271850044</v>
+        <v>-7.486169674495777</v>
       </c>
     </row>
   </sheetData>
